--- a/data/statements/copom_dates.xlsx
+++ b/data/statements/copom_dates.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:C210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
